--- a/Deliverable 4/Assignment 4 spreadsheet Latest.xlsx
+++ b/Deliverable 4/Assignment 4 spreadsheet Latest.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="1" state="visible" r:id="rId2"/>
@@ -314,7 +314,7 @@
   <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
+      <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -513,8 +513,8 @@
         <v>5</v>
       </c>
       <c r="F4" s="6" t="n">
-        <f aca="false">F11*4</f>
-        <v>5916</v>
+        <f aca="false">F11</f>
+        <v>1479</v>
       </c>
       <c r="G4" s="6" t="n">
         <f aca="false">G11</f>
@@ -525,19 +525,19 @@
       </c>
       <c r="I4" s="7" t="n">
         <f aca="false">F4*B4*(1+E4/100)*(1+H4/100)</f>
-        <v>198156.42</v>
+        <v>49539.105</v>
       </c>
       <c r="J4" s="8" t="n">
         <f aca="false">I4/1024/1024</f>
-        <v>0.18897668838501</v>
+        <v>0.0472441720962525</v>
       </c>
       <c r="K4" s="9" t="n">
         <f aca="false">F4*B4*(1+D4/100)*(1+H4/100)</f>
-        <v>188720.4</v>
+        <v>47180.1</v>
       </c>
       <c r="L4" s="6" t="n">
         <f aca="false">K4/1024/1024</f>
-        <v>0.179977798461914</v>
+        <v>0.0449944496154785</v>
       </c>
       <c r="M4" s="9" t="s">
         <v>23</v>

--- a/Deliverable 4/Assignment 4 spreadsheet Latest.xlsx
+++ b/Deliverable 4/Assignment 4 spreadsheet Latest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dtpett16\projects\github.com\dtpett16\IS309\Deliverable 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15FAB5FE-8186-43D4-BA3F-4125F647028F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{29D18260-8638-429B-B718-9ED21C4B2AD2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="988" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -87,9 +87,6 @@
     <t>4 MB</t>
   </si>
   <si>
-    <t>Tablespace 1</t>
-  </si>
-  <si>
     <t>I_BILLING</t>
   </si>
   <si>
@@ -99,18 +96,12 @@
     <t>8 MB</t>
   </si>
   <si>
-    <t>Tablespace 3</t>
-  </si>
-  <si>
     <t>I_BUDGET</t>
   </si>
   <si>
     <t>64 K</t>
   </si>
   <si>
-    <t>Tablespace 4</t>
-  </si>
-  <si>
     <t>I_DONATION</t>
   </si>
   <si>
@@ -120,9 +111,6 @@
     <t>2 MB</t>
   </si>
   <si>
-    <t>Tablespace 2</t>
-  </si>
-  <si>
     <t>I_FOCUS_AREA</t>
   </si>
   <si>
@@ -160,6 +148,18 @@
   </si>
   <si>
     <t>I_BUDGET, I_FOCUS_AREA, I_GIVING_LEVEL, I_PROJ_FOCUSAREA, I_PROJ_PROJTYPE, I_PROJECT_TYPE</t>
+  </si>
+  <si>
+    <t>UIAALUMNI4M</t>
+  </si>
+  <si>
+    <t>UIAALUMNI2MB</t>
+  </si>
+  <si>
+    <t>UIAALUMNI8MB</t>
+  </si>
+  <si>
+    <t>UIAALUMNI64K</t>
   </si>
 </sst>
 </file>
@@ -209,7 +209,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -234,6 +234,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -552,10 +554,10 @@
   <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.140625"/>
     <col min="2" max="2" width="24.7109375"/>
@@ -570,7 +572,7 @@
     <col min="12" max="12" width="16.7109375"/>
     <col min="13" max="14" width="18.28515625"/>
     <col min="15" max="15" width="5.42578125"/>
-    <col min="16" max="16" width="12.7109375"/>
+    <col min="16" max="16" width="16.42578125" customWidth="1"/>
     <col min="17" max="17" width="14.85546875"/>
     <col min="18" max="18" width="12.42578125"/>
     <col min="19" max="19" width="27.5703125"/>
@@ -656,7 +658,7 @@
         <f t="shared" ref="I2:I13" si="1">F2*B2*(1+E2/100)*(1+H2/100)</f>
         <v>3958321.62</v>
       </c>
-      <c r="J2" s="8">
+      <c r="J2" s="14">
         <f t="shared" ref="J2:J13" si="2">I2/1024/1024</f>
         <v>3.7749496650695802</v>
       </c>
@@ -664,7 +666,7 @@
         <f t="shared" ref="K2:K13" si="3">F2*B2*(1+D2/100)*(1+H2/100)</f>
         <v>3446250.7903278689</v>
       </c>
-      <c r="L2" s="6">
+      <c r="L2" s="15">
         <f t="shared" ref="L2:L13" si="4">K2/1024/1024</f>
         <v>3.2866008666304292</v>
       </c>
@@ -675,12 +677,12 @@
         <v>16</v>
       </c>
       <c r="P2" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3">
         <v>74</v>
@@ -710,7 +712,7 @@
         <f t="shared" si="1"/>
         <v>4914946.2449999992</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J3" s="14">
         <f t="shared" si="2"/>
         <v>4.6872580003738396</v>
       </c>
@@ -718,23 +720,23 @@
         <f t="shared" si="3"/>
         <v>4278954.2360714292</v>
       </c>
-      <c r="L3" s="6">
+      <c r="L3" s="15">
         <f t="shared" si="4"/>
         <v>4.0807287560190479</v>
       </c>
       <c r="M3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="N3" s="10" t="s">
-        <v>20</v>
-      </c>
       <c r="P3" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4">
         <v>29</v>
@@ -747,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F4" s="6">
         <f>F11</f>
@@ -762,33 +764,33 @@
       </c>
       <c r="I4" s="7">
         <f t="shared" si="1"/>
-        <v>49539.10500000001</v>
-      </c>
-      <c r="J4" s="8">
+        <v>47180.100000000006</v>
+      </c>
+      <c r="J4" s="14">
         <f t="shared" si="2"/>
-        <v>4.7244172096252451E-2</v>
+        <v>4.4994449615478521E-2</v>
       </c>
       <c r="K4" s="9">
         <f t="shared" si="3"/>
         <v>47180.100000000006</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4" s="15">
         <f t="shared" si="4"/>
         <v>4.4994449615478521E-2</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N4" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P4" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B5">
         <v>29</v>
@@ -818,7 +820,7 @@
         <f t="shared" si="1"/>
         <v>3852255.165</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="14">
         <f t="shared" si="2"/>
         <v>3.6737968111038208</v>
       </c>
@@ -826,7 +828,7 @@
         <f t="shared" si="3"/>
         <v>3354713.2575000003</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5" s="15">
         <f t="shared" si="4"/>
         <v>3.1993038725852969</v>
       </c>
@@ -837,12 +839,12 @@
         <v>16</v>
       </c>
       <c r="P5" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B6">
         <v>12</v>
@@ -855,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F6" s="6">
         <f>F5*1.5</f>
@@ -870,50 +872,49 @@
       </c>
       <c r="I6" s="7">
         <f t="shared" si="1"/>
-        <v>2183137.1100000003</v>
-      </c>
-      <c r="J6" s="8">
+        <v>2079178.2000000002</v>
+      </c>
+      <c r="J6" s="14">
         <f t="shared" si="2"/>
-        <v>2.0820017910003665</v>
+        <v>1.9828588485717775</v>
       </c>
       <c r="K6" s="9">
         <f t="shared" si="3"/>
         <v>2079178.2000000002</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L6" s="15">
         <f t="shared" si="4"/>
         <v>1.9828588485717775</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="N6" s="10" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="P6" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B7">
         <v>14</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>0.26315789473684209</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F7" s="6">
-        <f>F11*1.5</f>
-        <v>2218.5</v>
+        <v>8</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -923,33 +924,33 @@
       </c>
       <c r="I7" s="7">
         <f t="shared" si="1"/>
-        <v>44414.37000000001</v>
-      </c>
-      <c r="J7" s="8">
+        <v>123.20000000000002</v>
+      </c>
+      <c r="J7" s="14">
         <f t="shared" si="2"/>
-        <v>4.2356843948364267E-2</v>
+        <v>1.1749267578125002E-4</v>
       </c>
       <c r="K7" s="9">
         <f t="shared" si="3"/>
-        <v>34254.807631578944</v>
-      </c>
-      <c r="L7" s="6">
+        <v>123.20000000000002</v>
+      </c>
+      <c r="L7" s="15">
         <f t="shared" si="4"/>
-        <v>3.2667930251673645E-2</v>
+        <v>1.1749267578125002E-4</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N7" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P7" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B8">
         <v>20</v>
@@ -979,7 +980,7 @@
         <f t="shared" si="1"/>
         <v>122017.50000000001</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J8" s="14">
         <f t="shared" si="2"/>
         <v>0.11636495590209962</v>
       </c>
@@ -987,23 +988,23 @@
         <f t="shared" si="3"/>
         <v>97809.228000000003</v>
       </c>
-      <c r="L8" s="6">
+      <c r="L8" s="15">
         <f t="shared" si="4"/>
         <v>9.327814865112305E-2</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N8" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P8" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B9">
         <v>22</v>
@@ -1019,8 +1020,8 @@
         <v>20</v>
       </c>
       <c r="F9" s="6">
-        <f>F11+F7</f>
-        <v>3697.5</v>
+        <f>F11*1.5</f>
+        <v>2218.5</v>
       </c>
       <c r="G9" s="6">
         <f>G11*1.5</f>
@@ -1031,50 +1032,50 @@
       </c>
       <c r="I9" s="7">
         <f t="shared" si="1"/>
-        <v>107375.40000000001</v>
-      </c>
-      <c r="J9" s="8">
+        <v>64425.240000000005</v>
+      </c>
+      <c r="J9" s="14">
         <f t="shared" si="2"/>
-        <v>0.10240116119384766</v>
+        <v>6.1440696716308599E-2</v>
       </c>
       <c r="K9" s="9">
         <f t="shared" si="3"/>
-        <v>89645.202777777769</v>
-      </c>
-      <c r="L9" s="6">
+        <v>53787.121666666666</v>
+      </c>
+      <c r="L9" s="15">
         <f t="shared" si="4"/>
-        <v>8.5492327478196878E-2</v>
+        <v>5.1295396486918131E-2</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P9" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B10">
         <v>14</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.26315789473684209</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F10" s="6">
-        <f>F11+F12</f>
-        <v>3401.7</v>
+        <f>F11*1.3</f>
+        <v>1922.7</v>
       </c>
       <c r="G10" s="13">
         <f>G11*1.3</f>
@@ -1085,33 +1086,33 @@
       </c>
       <c r="I10" s="7">
         <f t="shared" si="1"/>
-        <v>52386.18</v>
-      </c>
-      <c r="J10" s="8">
+        <v>38492.454000000005</v>
+      </c>
+      <c r="J10" s="14">
         <f t="shared" si="2"/>
-        <v>4.9959354400634766E-2</v>
+        <v>3.6709264755249028E-2</v>
       </c>
       <c r="K10" s="9">
         <f t="shared" si="3"/>
-        <v>52386.18</v>
-      </c>
-      <c r="L10" s="6">
+        <v>29687.499947368418</v>
+      </c>
+      <c r="L10" s="15">
         <f t="shared" si="4"/>
-        <v>4.9959354400634766E-2</v>
+        <v>2.8312206218117159E-2</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N10" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P10" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B11">
         <v>2860</v>
@@ -1140,7 +1141,7 @@
         <f t="shared" si="1"/>
         <v>5118227.4000000004</v>
       </c>
-      <c r="J11" s="8">
+      <c r="J11" s="14">
         <f t="shared" si="2"/>
         <v>4.8811220169067386</v>
       </c>
@@ -1148,40 +1149,39 @@
         <f t="shared" si="3"/>
         <v>4656947.7130351448</v>
       </c>
-      <c r="L11" s="6">
+      <c r="L11" s="15">
         <f t="shared" si="4"/>
         <v>4.4412114267684411</v>
       </c>
       <c r="M11" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N11" t="s">
         <v>19</v>
       </c>
-      <c r="N11" t="s">
-        <v>20</v>
-      </c>
       <c r="P11" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B12">
         <v>13</v>
       </c>
       <c r="C12">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>0.27777777777777779</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F12" s="6">
-        <f>F11*1.3</f>
-        <v>1922.7</v>
+        <v>10</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1191,33 +1191,33 @@
       </c>
       <c r="I12" s="7">
         <f t="shared" si="1"/>
-        <v>35742.993000000009</v>
-      </c>
-      <c r="J12" s="8">
+        <v>143</v>
+      </c>
+      <c r="J12" s="14">
         <f t="shared" si="2"/>
-        <v>3.4087174415588388E-2</v>
+        <v>1.3637542724609375E-4</v>
       </c>
       <c r="K12" s="9">
         <f t="shared" si="3"/>
-        <v>27570.983916666672</v>
-      </c>
-      <c r="L12" s="6">
+        <v>143</v>
+      </c>
+      <c r="L12" s="15">
         <f t="shared" si="4"/>
-        <v>2.6293739239374801E-2</v>
+        <v>1.3637542724609375E-4</v>
       </c>
       <c r="M12" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N12" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P12" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B13">
         <v>45</v>
@@ -1247,7 +1247,7 @@
         <f t="shared" si="1"/>
         <v>3329429.4</v>
       </c>
-      <c r="J13" s="8">
+      <c r="J13" s="14">
         <f t="shared" si="2"/>
         <v>3.175191307067871</v>
       </c>
@@ -1255,7 +1255,7 @@
         <f t="shared" si="3"/>
         <v>2898051.1559999995</v>
       </c>
-      <c r="L13" s="6">
+      <c r="L13" s="15">
         <f t="shared" si="4"/>
         <v>2.7637969551086421</v>
       </c>
@@ -1266,7 +1266,7 @@
         <v>16</v>
       </c>
       <c r="P13" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -1286,13 +1286,13 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="J16" s="8"/>
       <c r="K16" s="9"/>
@@ -1301,13 +1301,13 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="B17" t="s">
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
@@ -1318,13 +1318,13 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
@@ -1335,13 +1335,13 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
@@ -1352,13 +1352,13 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
